--- a/tables/CZG_PhenT_AbsLat.xlsx
+++ b/tables/CZG_PhenT_AbsLat.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">0.071</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0582</t>
+    <t xml:space="preserve"> 1.888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0590</t>
   </si>
   <si>
     <t xml:space="preserve">abs_lat</t>
@@ -56,25 +56,25 @@
     <t xml:space="preserve">0.001</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1527</t>
+    <t xml:space="preserve"> 2.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1528</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.053</t>
+    <t xml:space="preserve">-0.051</t>
   </si>
   <si>
     <t xml:space="preserve">0.037</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1547</t>
+    <t xml:space="preserve">-1.376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1688</t>
   </si>
 </sst>
 </file>
